--- a/document files/05_소프트웨어설계/클래스 설계/클래스설계 _유저페이지.xlsx
+++ b/document files/05_소프트웨어설계/클래스 설계/클래스설계 _유저페이지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="122">
   <si>
     <t>클래스명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,102 @@
   </si>
   <si>
     <t>결제페이지이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnAController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 조회, 수정, 삭제 등 QnA게시글 작성에 필요한 메서드를 포함한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_write()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 글 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글조회, 수정, 삭제 댓글 등 작성에 필요한 메서드를 포함한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_write()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 글 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerReply()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인에 필요한 메서드를 포함한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -648,13 +744,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +810,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,29 +855,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K51"/>
+  <dimension ref="B2:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1035,34 +1160,34 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1076,7 +1201,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="25"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1213,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1225,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="25"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1237,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1249,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +1261,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="25"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1148,7 +1273,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="26"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1177,34 +1302,34 @@
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1218,7 +1343,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="25"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1355,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="25"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1367,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="25"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1379,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="25"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1266,7 +1391,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="25"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1278,7 +1403,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1290,7 +1415,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1302,7 +1427,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="25"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1317,34 +1442,34 @@
       <c r="B29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -1358,7 +1483,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="12" t="s">
         <v>55</v>
       </c>
@@ -1370,7 +1495,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="12" t="s">
         <v>58</v>
       </c>
@@ -1382,7 +1507,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="12" t="s">
         <v>61</v>
       </c>
@@ -1394,7 +1519,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="12" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1531,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="12" t="s">
         <v>67</v>
       </c>
@@ -1418,7 +1543,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="12" t="s">
         <v>70</v>
       </c>
@@ -1430,7 +1555,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="15"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="12" t="s">
         <v>72</v>
       </c>
@@ -1442,7 +1567,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="16"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="12" t="s">
         <v>75</v>
       </c>
@@ -1457,34 +1582,34 @@
       <c r="B43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -1498,7 +1623,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="15"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="12" t="s">
         <v>85</v>
       </c>
@@ -1510,7 +1635,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="15"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="12" t="s">
         <v>88</v>
       </c>
@@ -1522,7 +1647,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="15"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="12" t="s">
         <v>91</v>
       </c>
@@ -1534,7 +1659,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="15"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12" t="s">
         <v>94</v>
       </c>
@@ -1546,7 +1671,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="16"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="12" t="s">
         <v>96</v>
       </c>
@@ -1557,8 +1682,400 @@
         <v>97</v>
       </c>
     </row>
+    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="23"/>
+      <c r="C58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="23"/>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="23"/>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="23"/>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="23"/>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="23"/>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="23"/>
+      <c r="C64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="24"/>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="29"/>
+      <c r="C72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="29"/>
+      <c r="C73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="29"/>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="29"/>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="29"/>
+      <c r="C76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="29"/>
+      <c r="C77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="29"/>
+      <c r="C78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="29"/>
+      <c r="C79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="29"/>
+      <c r="C80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="29"/>
+      <c r="C87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="29"/>
+      <c r="C88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="29"/>
+      <c r="C89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="28">
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="B18:B26"/>
@@ -1567,14 +2084,6 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
